--- a/biology/Médecine/Ligne_de_Mees/Ligne_de_Mees.xlsx
+++ b/biology/Médecine/Ligne_de_Mees/Ligne_de_Mees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lignes de Mees ou lignes d'Aldrich–Mees, également appelées leukonychia striata, sont des lignes blanches de décoloration sur les ongles des doigts et des orteils (leuconychie).
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont généralement des bandes blanches traversant la largeur de l'ongle. Au fur et à mesure que l'ongle grandit, elles se déplacent vers l'extrémité et disparaissent finalement lorsque l'ongle est coupé.
 </t>
@@ -542,9 +556,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lignes, ou rides de Mees apparaissent après un épisode d'intoxication à l'arsenic[1], au thallium ou à d'autres métaux lourds, ou au sélénium[2], et peuvent également apparaître si le sujet souffre d'insuffisance rénale[3]. Elles ont été observées chez des patients en chimiothérapie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lignes, ou rides de Mees apparaissent après un épisode d'intoxication à l'arsenic, au thallium ou à d'autres métaux lourds, ou au sélénium, et peuvent également apparaître si le sujet souffre d'insuffisance rénale. Elles ont été observées chez des patients en chimiothérapie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Éponyme et histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que le phénomène porte le nom du médecin néerlandais R. A. Mees, qui a décrit l'anomalie en 1919[5], des descriptions antérieures de la même anomalie ont été faites par l'Anglais E. S. Reynolds en 1901[6] et par l'Américain C. J. Aldrich en 1904[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que le phénomène porte le nom du médecin néerlandais R. A. Mees, qui a décrit l'anomalie en 1919, des descriptions antérieures de la même anomalie ont été faites par l'Anglais E. S. Reynolds en 1901 et par l'Américain C. J. Aldrich en 1904.
 </t>
         </is>
       </c>
